--- a/dist/upload.xlsx
+++ b/dist/upload.xlsx
@@ -118,7 +118,7 @@
     <t>Dikirim Dalam Pre-order</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli1.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny1</t>
   </si>
   <si>
     <t>Tersedia warna navy, hitam, putih, maroon
@@ -146,7 +146,7 @@
     <t>putih</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951411/kaosjapan/ghibli1_npujx9.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210108/kaosjapan/funny1_ojr6lm.jpg</t>
   </si>
   <si>
     <t>https://cf.shopee.co.id/file/803ac8c59e88326c98fbcb7f4632011a</t>
@@ -173,58 +173,58 @@
     <t>maroon</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli10.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny10</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951414/kaosjapan/ghibli10_qdhonc.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210113/kaosjapan/funny10_tggqip.jpg</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli2.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny2</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951419/kaosjapan/ghibli2_qoanp6.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210118/kaosjapan/funny2_fqngda.jpg</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli3.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny3</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951430/kaosjapan/ghibli3_twedh3.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210123/kaosjapan/funny3_r8ykb0.jpg</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli4.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny4</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951434/kaosjapan/ghibli4_cvrgu2.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210129/kaosjapan/funny4_creuh2.jpg</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli5.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny5</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951440/kaosjapan/ghibli5_vkiytn.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210134/kaosjapan/funny5_j1iorz.jpg</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli6.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny6</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951443/kaosjapan/ghibli6_xmvxt8.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210139/kaosjapan/funny6_rzzlzk.jpg</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli7.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny7</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951447/kaosjapan/ghibli7_ipcv7i.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210145/kaosjapan/funny7_bdjyij.jpg</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli8.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny8</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951450/kaosjapan/ghibli8_xuzqjw.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210154/kaosjapan/funny8_fb7uuk.jpg</t>
   </si>
   <si>
-    <t>Kaos distro pria anime ghibli jepang T-Shirt casual lengan pendek bahan katun ghibli9.jpg</t>
+    <t>Kaos distro pria gambar lucu unik T-Shirt casual lengan pendek bahan katun funny9</t>
   </si>
   <si>
-    <t>http://res.cloudinary.com/philipbr/image/upload/v1597951454/kaosjapan/ghibli9_jktkcx.jpg</t>
+    <t>http://res.cloudinary.com/philipbr/image/upload/v1598210157/kaosjapan/funny9_cdg15h.jpg</t>
   </si>
 </sst>
 </file>
